--- a/XLOOKUP.xlsx
+++ b/XLOOKUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27915"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Taha\projects\Data Science Fundamentals with Python and SQL\Excel for Data Analysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA26B42-5004-4BE8-962E-9C219616092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4552471E-3867-4E15-BF4B-D4854CCF7EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="106">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -316,6 +338,48 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>XLOOKUP(lookup value, lookup array, return array, [if not found], [match mode], [search model])</t>
+  </si>
+  <si>
+    <t>lookup value: The value you have to start with, which you wanted to find related information for</t>
+  </si>
+  <si>
+    <t>lookup array: The row/column you wish to search through for the lookup value</t>
+  </si>
+  <si>
+    <t>return array: The row/column from which you wish to pull the desired information for the associated lookup value</t>
+  </si>
+  <si>
+    <t>To be able to do this however, the columns you wish to return info from do have to be next to each other. Otherwise, just write another xlookup formula in another separate column</t>
+  </si>
+  <si>
+    <t>Here, we still typed the formula in just one cell, but for "return array", we expanded the range across 2 columns, and it returned the info from each column in 2 separate columns</t>
+  </si>
+  <si>
+    <t>[match mode] dictates how the match is found. It has 4 modes, 2 of which will be shown on this page, the other 2 on the next</t>
+  </si>
+  <si>
+    <t>[match mode] 0: The default, an exact match</t>
+  </si>
+  <si>
+    <t>[match mode] 2: Wildcard character match. By putting an asterisk before or after the search term, you can find a match as long as a cell contains that lookup value somewhere in it, even if there are other things also present.</t>
+  </si>
+  <si>
+    <t>[If not found] dictates what is displayed in a return cell if the search value is not found in the lookup array. Shown in the formula in the first search, Toby Flender.</t>
+  </si>
+  <si>
+    <t>[match mode]: For 1/1/2000, we set match mode to "1". As there was no match for it, it found the next biggest value- 1/5/2000, corresponding to Angela Martin</t>
+  </si>
+  <si>
+    <t>[search model]: For 5/6/2001, there were 2 values, but we set search model to  "-1", meaning it searched from the bottom up, returning Micheal Scott. Otherwise, it would have found Toby Flenderson</t>
+  </si>
+  <si>
+    <t>Here, the lookup value is the month we want associated data for (February), the lookup array the row of months, and the return array the category row we want data from for that month</t>
+  </si>
+  <si>
+    <t>Here, we sum 2 months together through their Xlookups.  We did this by doing SUM(Xlookup1 : xlookup2)</t>
   </si>
 </sst>
 </file>
@@ -331,12 +395,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,10 +421,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,14 +742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027015F-D30F-450C-928C-DE78480974B7}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
@@ -767,6 +838,10 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
+      <c r="B3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A3, H2:H10, P2:P10)</f>
+        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
+      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -805,6 +880,10 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
+      <c r="B4" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A4, H2:H10, P2:P10)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -843,6 +922,10 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
+      <c r="B5" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A5, H2:H10, P2:P10)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -881,6 +964,10 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
+      <c r="B6" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A6, H2:H10, P2:P10)</f>
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
       <c r="E6">
         <v>1005</v>
       </c>
@@ -1055,13 +1142,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
         <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1077,13 +1184,14 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.7109375" bestFit="1" customWidth="1"/>
@@ -1128,10 +1236,10 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2">
@@ -1172,6 +1280,13 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
+      <c r="B3" s="3" t="str" cm="1">
+        <f t="array" ref="B3:C3">_xlfn.XLOOKUP(A3, I2:I10, O2:P10)</f>
+        <v>8/30/2017</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
+      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -1210,6 +1325,13 @@
       <c r="A4" t="s">
         <v>62</v>
       </c>
+      <c r="B4" s="3" t="str" cm="1">
+        <f t="array" ref="B4:C4">_xlfn.XLOOKUP(A4, I2:I10, O2:P10)</f>
+        <v>10/10/2015</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="F4">
         <v>1003</v>
       </c>
@@ -1248,6 +1370,13 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
+      <c r="B5" s="3" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.XLOOKUP(A5, I2:I10, O2:P10)</f>
+        <v>9/11/2013</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="F5">
         <v>1004</v>
       </c>
@@ -1286,6 +1415,13 @@
       <c r="A6" t="s">
         <v>69</v>
       </c>
+      <c r="B6" s="3" t="str" cm="1">
+        <f t="array" ref="B6:C6">_xlfn.XLOOKUP(A6, I2:I10, O2:P10)</f>
+        <v>4/22/2015</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
       <c r="F6">
         <v>1005</v>
       </c>
@@ -1458,6 +1594,16 @@
       </c>
       <c r="P10" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
@@ -1482,14 +1628,14 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1533,7 +1679,7 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2">
@@ -1574,6 +1720,10 @@
       <c r="A3" t="s">
         <v>86</v>
       </c>
+      <c r="B3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A3,H2:H10,O2:O10, "Not Found")</f>
+        <v>Not Found</v>
+      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -1612,6 +1762,10 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="3" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A4,H2:H10,O2:O10, "Not Found", 2)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -1650,6 +1804,10 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
+      <c r="B5" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A5&amp;"*",H2:H10,O2:O10, "Not Found",2)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -1688,6 +1846,10 @@
       <c r="A6" t="s">
         <v>87</v>
       </c>
+      <c r="B6" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A6&amp;"*",H2:H10,O2:O10, "Not Found",2)</f>
+        <v>Kevin.Malone@DunderMifflin.com</v>
+      </c>
       <c r="E6">
         <v>1005</v>
       </c>
@@ -1862,13 +2024,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
         <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1884,7 +2066,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +2118,7 @@
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F2">
@@ -1977,6 +2159,10 @@
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B3" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A3,N2:N10,I2:I10,,1)</f>
+        <v>Angela Martin</v>
+      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -2015,6 +2201,10 @@
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B4" s="3" t="str">
+        <f>_xlfn.XLOOKUP(A4, N2:N10, I2:I10,,,-1)</f>
+        <v>Michael Scott</v>
+      </c>
       <c r="F4">
         <v>1003</v>
       </c>
@@ -2257,6 +2447,16 @@
       </c>
       <c r="P10" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
@@ -2278,19 +2478,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
@@ -2334,6 +2535,10 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2378,6 +2583,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="B3" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H3:S3)</f>
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2422,6 +2631,10 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
+      <c r="B4" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H4:S4)</f>
+        <v>118</v>
+      </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
@@ -2460,6 +2673,11 @@
       </c>
       <c r="S4">
         <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2469,19 +2687,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
@@ -2525,6 +2744,10 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2569,6 +2792,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="B3" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H3:S3)</f>
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2613,6 +2840,10 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
+      <c r="B4" s="3">
+        <f>_xlfn.XLOOKUP(B1,H1:S1,H4:S4)</f>
+        <v>118</v>
+      </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
@@ -2654,13 +2885,22 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
+      </c>
+      <c r="B7" s="3">
+        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2):_xlfn.XLOOKUP(J1,H1:S1,H2:S2))</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2913,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
